--- a/data/trans_dic/P43E-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43E-Estudios-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09907972160198959</v>
+        <v>0.104764419522891</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03142864294003604</v>
+        <v>0.03164972694271555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04370438614452778</v>
+        <v>0.04232270774741859</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1554496601257055</v>
+        <v>0.1544716280835972</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07533370356697458</v>
+        <v>0.0740591154863191</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08795202770811744</v>
+        <v>0.08604668390887722</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2085467262304155</v>
+        <v>0.2086011447849442</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1202375326053691</v>
+        <v>0.1203849583796433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.188188674600852</v>
+        <v>0.1868503971877062</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2594279199366812</v>
+        <v>0.2597991071257455</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1609314100907585</v>
+        <v>0.1601320120378173</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2362338106996001</v>
+        <v>0.2337605285231981</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3757165927668221</v>
+        <v>0.3760960201596608</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3059395183807337</v>
+        <v>0.3144618524791453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4249728056593177</v>
+        <v>0.42319244354712</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4891211973531427</v>
+        <v>0.487741342266672</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4051580421407451</v>
+        <v>0.4120653260401855</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5165405121450702</v>
+        <v>0.5097624293036143</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2106858829434431</v>
+        <v>0.2120631147434178</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1449066751196205</v>
+        <v>0.1472601755580017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2266024058601263</v>
+        <v>0.2271518743929355</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2491868197354818</v>
+        <v>0.2491704905428273</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1796054581144486</v>
+        <v>0.1790322594510378</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2648338197525864</v>
+        <v>0.2643845230827205</v>
       </c>
     </row>
     <row r="16">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>68248</v>
+        <v>72164</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14941</v>
+        <v>15046</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13275</v>
+        <v>12855</v>
       </c>
     </row>
     <row r="7">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>107077</v>
+        <v>106404</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35814</v>
+        <v>35208</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26714</v>
+        <v>26136</v>
       </c>
     </row>
     <row r="8">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>253013</v>
+        <v>253079</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>151010</v>
+        <v>151195</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>172179</v>
+        <v>170954</v>
       </c>
     </row>
     <row r="11">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>314743</v>
+        <v>315194</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>202119</v>
+        <v>201115</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>216136</v>
+        <v>213874</v>
       </c>
     </row>
     <row r="12">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>129250</v>
+        <v>129381</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>126342</v>
+        <v>129861</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>164381</v>
+        <v>163693</v>
       </c>
     </row>
     <row r="15">
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>168263</v>
+        <v>167788</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>167315</v>
+        <v>170168</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>199800</v>
+        <v>197178</v>
       </c>
     </row>
     <row r="16">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>473212</v>
+        <v>476305</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>310723</v>
+        <v>315770</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>363803</v>
+        <v>364685</v>
       </c>
     </row>
     <row r="19">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>559687</v>
+        <v>559650</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>385127</v>
+        <v>383898</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>425182</v>
+        <v>424461</v>
       </c>
     </row>
     <row r="20">
